--- a/ExampleResults.xlsx
+++ b/ExampleResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Example input files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA845B59-DFA3-44BD-B103-00ACC15942F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B333CB1-DF5A-459C-A543-F9D9326D0E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
+    <workbookView xWindow="30885" yWindow="1095" windowWidth="23595" windowHeight="13380" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16083" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16086" uniqueCount="142">
   <si>
     <t>Monitoring Location ID</t>
   </si>
@@ -496,6 +496,15 @@
   <si>
     <t>pH-6-17-5</t>
   </si>
+  <si>
+    <t>Sample Collection Method ID</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Result Comment</t>
+  </si>
 </sst>
 </file>
 
@@ -578,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,6 +610,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -918,13 +930,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C271A468-9B9D-48BE-A50F-E841236CDECF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N2653"/>
+  <dimension ref="A1:Q2653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E957" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I968" sqref="I968"/>
+      <selection pane="bottomRight" activeCell="N963" sqref="N963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,9 +951,12 @@
     <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -984,8 +999,17 @@
       <c r="N1" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1113,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1241,7 +1265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1305,7 +1329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1337,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>

--- a/ExampleResults.xlsx
+++ b/ExampleResults.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B333CB1-DF5A-459C-A543-F9D9326D0E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FD2931-E460-4182-A1AF-B481EDFDFE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="1095" windowWidth="23595" windowHeight="13380" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
+    <workbookView xWindow="2355" yWindow="915" windowWidth="21600" windowHeight="11325" xr2:uid="{6EB090EE-BC59-4E27-A120-D58B60EE5B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$N$2500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$Q$2653</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -383,9 +383,6 @@
     <t>cfu/100ml</t>
   </si>
   <si>
-    <t>Quality Control Field Calibration Check</t>
-  </si>
-  <si>
     <t>K16452-MB1</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   <si>
     <t>Result Comment</t>
   </si>
+  <si>
+    <t>Quality Control-Calibration Check</t>
+  </si>
 </sst>
 </file>
 
@@ -587,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,9 +610,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -933,10 +930,10 @@
   <dimension ref="A1:Q2653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E957" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2620" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N963" sqref="N963"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,14 +996,14 @@
       <c r="N1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -82579,7 +82576,7 @@
         <v>96</v>
       </c>
       <c r="N2545" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2546" spans="2:14" x14ac:dyDescent="0.25">
@@ -82599,7 +82596,7 @@
         <v>96</v>
       </c>
       <c r="N2546" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2547" spans="2:14" x14ac:dyDescent="0.25">
@@ -82619,7 +82616,7 @@
         <v>96</v>
       </c>
       <c r="N2547" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2548" spans="2:14" x14ac:dyDescent="0.25">
@@ -82639,7 +82636,7 @@
         <v>96</v>
       </c>
       <c r="N2548" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2549" spans="2:14" x14ac:dyDescent="0.25">
@@ -82659,7 +82656,7 @@
         <v>96</v>
       </c>
       <c r="N2549" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2550" spans="2:14" x14ac:dyDescent="0.25">
@@ -82679,7 +82676,7 @@
         <v>96</v>
       </c>
       <c r="N2550" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2551" spans="2:14" x14ac:dyDescent="0.25">
@@ -82699,7 +82696,7 @@
         <v>96</v>
       </c>
       <c r="N2551" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2552" spans="2:14" x14ac:dyDescent="0.25">
@@ -82719,7 +82716,7 @@
         <v>96</v>
       </c>
       <c r="N2552" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2553" spans="2:14" x14ac:dyDescent="0.25">
@@ -82833,7 +82830,7 @@
         <v>13</v>
       </c>
       <c r="N2558" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2559" spans="2:14" x14ac:dyDescent="0.25">
@@ -82859,7 +82856,7 @@
         <v>13</v>
       </c>
       <c r="N2559" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2560" spans="2:14" x14ac:dyDescent="0.25">
@@ -82885,7 +82882,7 @@
         <v>13</v>
       </c>
       <c r="N2560" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2561" spans="2:14" x14ac:dyDescent="0.25">
@@ -82911,7 +82908,7 @@
         <v>13</v>
       </c>
       <c r="N2561" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2562" spans="2:14" x14ac:dyDescent="0.25">
@@ -82937,7 +82934,7 @@
         <v>13</v>
       </c>
       <c r="N2562" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2563" spans="2:14" x14ac:dyDescent="0.25">
@@ -82963,7 +82960,7 @@
         <v>13</v>
       </c>
       <c r="N2563" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2564" spans="2:14" x14ac:dyDescent="0.25">
@@ -82992,7 +82989,7 @@
         <v>13</v>
       </c>
       <c r="N2564" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2565" spans="2:14" x14ac:dyDescent="0.25">
@@ -83021,7 +83018,7 @@
         <v>13</v>
       </c>
       <c r="N2565" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2566" spans="2:14" x14ac:dyDescent="0.25">
@@ -83050,7 +83047,7 @@
         <v>13</v>
       </c>
       <c r="N2566" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2567" spans="2:14" x14ac:dyDescent="0.25">
@@ -83079,7 +83076,7 @@
         <v>13</v>
       </c>
       <c r="N2567" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2568" spans="2:14" x14ac:dyDescent="0.25">
@@ -83108,7 +83105,7 @@
         <v>13</v>
       </c>
       <c r="N2568" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2569" spans="2:14" x14ac:dyDescent="0.25">
@@ -83137,7 +83134,7 @@
         <v>13</v>
       </c>
       <c r="N2569" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2570" spans="2:14" x14ac:dyDescent="0.25">
@@ -83166,7 +83163,7 @@
         <v>13</v>
       </c>
       <c r="N2570" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2571" spans="2:14" x14ac:dyDescent="0.25">
@@ -83195,7 +83192,7 @@
         <v>13</v>
       </c>
       <c r="N2571" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2572" spans="2:14" x14ac:dyDescent="0.25">
@@ -83224,7 +83221,7 @@
         <v>13</v>
       </c>
       <c r="N2572" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2573" spans="2:14" x14ac:dyDescent="0.25">
@@ -83256,7 +83253,7 @@
         <v>13</v>
       </c>
       <c r="N2573" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2574" spans="2:14" x14ac:dyDescent="0.25">
@@ -83288,7 +83285,7 @@
         <v>13</v>
       </c>
       <c r="N2574" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2575" spans="2:14" x14ac:dyDescent="0.25">
@@ -83713,7 +83710,7 @@
         <v>13</v>
       </c>
       <c r="N2593" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2594" spans="2:14" x14ac:dyDescent="0.25">
@@ -83742,7 +83739,7 @@
         <v>13</v>
       </c>
       <c r="N2594" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2595" spans="2:14" x14ac:dyDescent="0.25">
@@ -83771,7 +83768,7 @@
         <v>13</v>
       </c>
       <c r="N2595" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2596" spans="2:14" x14ac:dyDescent="0.25">
@@ -83800,7 +83797,7 @@
         <v>13</v>
       </c>
       <c r="N2596" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2597" spans="2:14" x14ac:dyDescent="0.25">
@@ -83829,7 +83826,7 @@
         <v>13</v>
       </c>
       <c r="N2597" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2598" spans="2:14" x14ac:dyDescent="0.25">
@@ -83858,7 +83855,7 @@
         <v>13</v>
       </c>
       <c r="N2598" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2599" spans="2:14" x14ac:dyDescent="0.25">
@@ -84443,7 +84440,7 @@
     </row>
     <row r="2628" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2628" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2628" s="4">
         <v>44360</v>
@@ -84467,12 +84464,12 @@
         <v>13</v>
       </c>
       <c r="N2628" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2629" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2629" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2629" s="4">
         <v>44360</v>
@@ -84496,12 +84493,12 @@
         <v>13</v>
       </c>
       <c r="N2629" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2630" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2630" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2630" s="4">
         <v>44360</v>
@@ -84525,12 +84522,12 @@
         <v>13</v>
       </c>
       <c r="N2630" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2631" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2631" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2631" s="4">
         <v>44360</v>
@@ -84554,12 +84551,12 @@
         <v>13</v>
       </c>
       <c r="N2631" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2632" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2632" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2632" s="4">
         <v>44362</v>
@@ -84583,12 +84580,12 @@
         <v>13</v>
       </c>
       <c r="N2632" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2633" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2633" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2633" s="4">
         <v>44363</v>
@@ -84612,12 +84609,12 @@
         <v>13</v>
       </c>
       <c r="N2633" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2634" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2634" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2634" s="4">
         <v>44364</v>
@@ -84641,12 +84638,12 @@
         <v>13</v>
       </c>
       <c r="N2634" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2635" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2635" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2635" s="4">
         <v>44360</v>
@@ -84670,12 +84667,12 @@
         <v>13</v>
       </c>
       <c r="N2635" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2636" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2636" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2636" s="4">
         <v>44360</v>
@@ -84699,12 +84696,12 @@
         <v>13</v>
       </c>
       <c r="N2636" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2637" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2637" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2637" s="4">
         <v>44451</v>
@@ -84730,7 +84727,7 @@
     </row>
     <row r="2638" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2638" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2638" s="4">
         <v>44451</v>
@@ -84756,7 +84753,7 @@
     </row>
     <row r="2639" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2639" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2639" s="4">
         <v>44451</v>
@@ -84782,7 +84779,7 @@
     </row>
     <row r="2640" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2640" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2640" s="4">
         <v>44451</v>
@@ -84808,7 +84805,7 @@
     </row>
     <row r="2641" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2641" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2641" s="4">
         <v>44451</v>
@@ -84834,7 +84831,7 @@
     </row>
     <row r="2642" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2642" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2642" s="4">
         <v>44451</v>
@@ -84860,7 +84857,7 @@
     </row>
     <row r="2643" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2643" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2643" s="4">
         <v>44451</v>
@@ -84886,7 +84883,7 @@
     </row>
     <row r="2644" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2644" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2644" s="4">
         <v>44420</v>
@@ -84912,7 +84909,7 @@
     </row>
     <row r="2645" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2645" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2645" s="4">
         <v>44451</v>
@@ -84938,7 +84935,7 @@
     </row>
     <row r="2646" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2646" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2646" s="4">
         <v>44451</v>
@@ -84964,7 +84961,7 @@
     </row>
     <row r="2647" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2647" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2647" s="4">
         <v>44451</v>
@@ -84990,7 +84987,7 @@
     </row>
     <row r="2648" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2648" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2648" s="4">
         <v>44481</v>
@@ -85016,7 +85013,7 @@
     </row>
     <row r="2649" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2649" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2649" s="4">
         <v>44482</v>
@@ -85042,7 +85039,7 @@
     </row>
     <row r="2650" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2650" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2650" s="4">
         <v>44483</v>
@@ -85068,7 +85065,7 @@
     </row>
     <row r="2651" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2651" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2651" s="4">
         <v>44484</v>
@@ -85094,7 +85091,7 @@
     </row>
     <row r="2652" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2652" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2652" s="4">
         <v>44484</v>
@@ -85120,7 +85117,7 @@
     </row>
     <row r="2653" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2653" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="C2653" s="4">
         <v>44485</v>
@@ -85145,6 +85142,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q2653" xr:uid="{C271A468-9B9D-48BE-A50F-E841236CDECF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N2649">
     <sortCondition ref="B2:B2649"/>
     <sortCondition ref="H2:H2649"/>

--- a/ExampleResults.xlsx
+++ b/ExampleResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Example input files\Official Samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D70A6-F8FE-417B-A8E0-6D1B7019A0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F1864-7C38-4685-AA6D-4AEBB241AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="338">
   <si>
     <t>Monitoring Location ID</t>
   </si>
@@ -1293,6 +1293,9 @@
   </si>
   <si>
     <t>99</t>
+  </si>
+  <si>
+    <t>Local Record ID</t>
   </si>
 </sst>
 </file>
@@ -1821,34 +1824,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q572"/>
+  <dimension ref="A1:R572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="5"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="12.1796875" customWidth="1"/>
+    <col min="16" max="17" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1898,10 +1901,13 @@
         <v>58</v>
       </c>
       <c r="Q1" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3115,7 +3121,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -3436,7 +3442,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3864,11 +3870,11 @@
       <c r="P56" t="s">
         <v>323</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -3941,7 +3947,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -3976,7 +3982,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -4014,7 +4020,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -4227,7 +4233,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -4443,7 +4449,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -4478,7 +4484,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -4586,7 +4592,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>143</v>
       </c>
@@ -4796,7 +4802,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -4831,7 +4837,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>78</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -5114,7 +5120,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>75</v>
       </c>
@@ -5152,7 +5158,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>77</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -5222,7 +5228,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -5257,7 +5263,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>80</v>
       </c>
@@ -5292,7 +5298,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -5400,7 +5406,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -5438,7 +5444,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>77</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>78</v>
       </c>
@@ -5508,7 +5514,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>79</v>
       </c>
@@ -5543,7 +5549,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>82</v>
       </c>
@@ -5651,7 +5657,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -5689,7 +5695,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>75</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>143</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>77</v>
       </c>
@@ -5797,7 +5803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -5832,7 +5838,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>80</v>
       </c>
@@ -5975,7 +5981,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -6010,7 +6016,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>82</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -6083,7 +6089,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>75</v>
       </c>
@@ -6118,7 +6124,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>77</v>
       </c>
@@ -6191,7 +6197,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>145</v>
       </c>
@@ -6264,7 +6270,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>78</v>
       </c>
@@ -6298,11 +6304,11 @@
       <c r="P124" t="s">
         <v>323</v>
       </c>
-      <c r="Q124" t="s">
+      <c r="R124" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>79</v>
       </c>
@@ -6337,7 +6343,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>80</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>81</v>
       </c>
@@ -6407,7 +6413,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>83</v>
       </c>
@@ -6477,7 +6483,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>75</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>77</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>78</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>79</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>80</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>81</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>82</v>
       </c>
@@ -6830,7 +6836,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>83</v>
       </c>
@@ -6865,7 +6871,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>75</v>
       </c>
@@ -6903,7 +6909,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -6938,7 +6944,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>78</v>
       </c>
@@ -6973,7 +6979,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>80</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -7078,7 +7084,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>82</v>
       </c>
@@ -7116,7 +7122,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>83</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>75</v>
       </c>
@@ -7189,7 +7195,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>77</v>
       </c>
@@ -7224,7 +7230,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>78</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>79</v>
       </c>
@@ -7294,7 +7300,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>80</v>
       </c>
@@ -7329,7 +7335,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>81</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>82</v>
       </c>
@@ -7402,7 +7408,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>83</v>
       </c>
@@ -7440,7 +7446,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>75</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>143</v>
       </c>
@@ -7513,7 +7519,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>77</v>
       </c>
@@ -7548,7 +7554,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>144</v>
       </c>
@@ -7583,7 +7589,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>78</v>
       </c>
@@ -7656,7 +7662,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>79</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>80</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>81</v>
       </c>
@@ -7761,7 +7767,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>82</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>83</v>
       </c>
@@ -7834,7 +7840,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>75</v>
       </c>
@@ -7869,7 +7875,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>143</v>
       </c>
@@ -7907,7 +7913,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>77</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>144</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>145</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>78</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>79</v>
       </c>
@@ -8085,7 +8091,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>80</v>
       </c>
@@ -8120,7 +8126,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>81</v>
       </c>
@@ -8155,7 +8161,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>82</v>
       </c>
@@ -8190,7 +8196,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>83</v>
       </c>
@@ -8225,7 +8231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>75</v>
       </c>
@@ -8260,7 +8266,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>143</v>
       </c>
@@ -8295,7 +8301,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>77</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>144</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>145</v>
       </c>
@@ -8403,7 +8409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>78</v>
       </c>
@@ -8438,7 +8444,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>79</v>
       </c>
@@ -8473,7 +8479,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>80</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>81</v>
       </c>
@@ -8543,7 +8549,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>82</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>83</v>
       </c>
@@ -8613,7 +8619,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>75</v>
       </c>
@@ -8651,7 +8657,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>77</v>
       </c>
@@ -8686,7 +8692,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>78</v>
       </c>
@@ -8721,7 +8727,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>79</v>
       </c>
@@ -8756,7 +8762,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>80</v>
       </c>
@@ -8791,7 +8797,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>81</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>82</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>83</v>
       </c>
@@ -8899,7 +8905,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>312</v>
       </c>
@@ -8928,7 +8934,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>312</v>
       </c>
@@ -8957,7 +8963,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>312</v>
       </c>
@@ -8986,7 +8992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>312</v>
       </c>
@@ -9015,7 +9021,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>312</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>312</v>
       </c>
@@ -9073,7 +9079,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>312</v>
       </c>
@@ -9102,7 +9108,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>312</v>
       </c>
@@ -9131,7 +9137,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>312</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>312</v>
       </c>
@@ -9189,7 +9195,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>312</v>
       </c>
@@ -9218,7 +9224,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>312</v>
       </c>
@@ -9247,7 +9253,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>312</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>312</v>
       </c>
@@ -9305,7 +9311,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>312</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>312</v>
       </c>
@@ -9363,7 +9369,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>312</v>
       </c>
@@ -9392,7 +9398,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>312</v>
       </c>
@@ -9421,7 +9427,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>312</v>
       </c>
@@ -9450,7 +9456,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>312</v>
       </c>
@@ -9479,7 +9485,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>312</v>
       </c>
@@ -9508,7 +9514,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>312</v>
       </c>
@@ -9537,7 +9543,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>312</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>312</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>312</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>312</v>
       </c>
@@ -9653,7 +9659,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>312</v>
       </c>
@@ -9682,7 +9688,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>312</v>
       </c>
@@ -9711,7 +9717,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>312</v>
       </c>
@@ -9740,7 +9746,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>313</v>
       </c>
@@ -9760,7 +9766,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>313</v>
       </c>
@@ -9780,7 +9786,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>313</v>
       </c>
@@ -9800,7 +9806,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>313</v>
       </c>
@@ -9820,7 +9826,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>313</v>
       </c>
@@ -9840,7 +9846,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>313</v>
       </c>
@@ -9860,7 +9866,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>313</v>
       </c>
@@ -9880,7 +9886,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>313</v>
       </c>
@@ -9900,7 +9906,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>313</v>
       </c>
@@ -9920,7 +9926,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>313</v>
       </c>
@@ -9940,7 +9946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>313</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="238" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>313</v>
       </c>
@@ -9980,7 +9986,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="239" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>313</v>
       </c>
@@ -10000,7 +10006,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="240" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>313</v>
       </c>
@@ -10020,7 +10026,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="241" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>313</v>
       </c>
@@ -10040,7 +10046,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="242" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>313</v>
       </c>
@@ -10060,7 +10066,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="243" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>313</v>
       </c>
@@ -10080,7 +10086,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>15</v>
       </c>
@@ -10103,7 +10109,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>15</v>
       </c>
@@ -10126,7 +10132,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>15</v>
       </c>
@@ -10149,7 +10155,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="247" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>15</v>
       </c>
@@ -10172,7 +10178,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>15</v>
       </c>
@@ -10195,7 +10201,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="249" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>15</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>15</v>
       </c>
@@ -10241,7 +10247,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>15</v>
       </c>
@@ -10264,7 +10270,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="252" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>15</v>
       </c>
@@ -10287,7 +10293,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="253" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>15</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="254" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>15</v>
       </c>
@@ -10333,7 +10339,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="255" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>15</v>
       </c>
@@ -10356,7 +10362,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>15</v>
       </c>
@@ -10379,7 +10385,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>15</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>15</v>
       </c>
@@ -10425,7 +10431,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>15</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>15</v>
       </c>
@@ -10471,7 +10477,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>15</v>
       </c>
@@ -10494,7 +10500,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>15</v>
       </c>
@@ -10517,7 +10523,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>15</v>
       </c>
@@ -10540,7 +10546,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>15</v>
       </c>
@@ -10563,7 +10569,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>15</v>
       </c>
@@ -10586,7 +10592,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>15</v>
       </c>
@@ -10609,7 +10615,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="267" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>15</v>
       </c>
@@ -10632,7 +10638,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="268" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>15</v>
       </c>
@@ -10655,7 +10661,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="269" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>15</v>
       </c>
@@ -10678,7 +10684,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="270" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>15</v>
       </c>
@@ -10701,7 +10707,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="271" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>15</v>
       </c>
@@ -10724,7 +10730,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="272" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>15</v>
       </c>
@@ -10747,7 +10753,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="273" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>15</v>
       </c>
@@ -10770,7 +10776,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="274" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>15</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="275" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>15</v>
       </c>
@@ -10816,7 +10822,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="276" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>15</v>
       </c>
@@ -10839,7 +10845,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="277" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>15</v>
       </c>
@@ -10862,7 +10868,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="278" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>15</v>
       </c>
@@ -10885,7 +10891,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>15</v>
       </c>
@@ -10908,7 +10914,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>15</v>
       </c>
@@ -10931,7 +10937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="281" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>15</v>
       </c>
@@ -10954,7 +10960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="282" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>15</v>
       </c>
@@ -10977,7 +10983,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="283" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>15</v>
       </c>
@@ -11000,7 +11006,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="284" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>314</v>
       </c>
@@ -11023,7 +11029,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="285" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>314</v>
       </c>
@@ -11046,7 +11052,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="286" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>314</v>
       </c>
@@ -11069,7 +11075,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="287" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>314</v>
       </c>
@@ -11092,7 +11098,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="288" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>314</v>
       </c>
@@ -11115,7 +11121,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="289" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>314</v>
       </c>
@@ -11138,7 +11144,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="290" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>314</v>
       </c>
@@ -11161,7 +11167,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="291" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>314</v>
       </c>
@@ -11184,7 +11190,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="292" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>314</v>
       </c>
@@ -11207,7 +11213,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="293" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>314</v>
       </c>
@@ -11230,7 +11236,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="294" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>314</v>
       </c>
@@ -11253,7 +11259,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="295" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>314</v>
       </c>
@@ -11276,7 +11282,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="296" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>314</v>
       </c>
@@ -11299,7 +11305,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="297" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>314</v>
       </c>
@@ -11322,7 +11328,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="298" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>314</v>
       </c>
@@ -11345,7 +11351,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="299" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>314</v>
       </c>
@@ -11368,7 +11374,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="300" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
         <v>314</v>
       </c>
@@ -11391,7 +11397,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="301" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
         <v>314</v>
       </c>
@@ -11414,7 +11420,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="302" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
         <v>314</v>
       </c>
@@ -11437,7 +11443,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="303" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
         <v>314</v>
       </c>
@@ -11460,7 +11466,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
         <v>314</v>
       </c>
@@ -11483,7 +11489,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="305" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
         <v>314</v>
       </c>
@@ -11506,7 +11512,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="306" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
         <v>314</v>
       </c>
@@ -11529,7 +11535,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="307" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
         <v>314</v>
       </c>
@@ -11552,7 +11558,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="308" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>314</v>
       </c>
@@ -11575,7 +11581,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="309" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>314</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="310" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>314</v>
       </c>
@@ -11621,7 +11627,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="311" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>314</v>
       </c>
@@ -11644,7 +11650,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="312" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
         <v>314</v>
       </c>
@@ -11667,7 +11673,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="313" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
         <v>314</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="314" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
         <v>314</v>
       </c>
@@ -11713,7 +11719,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="315" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
         <v>314</v>
       </c>
@@ -11736,7 +11742,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="316" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
         <v>314</v>
       </c>
@@ -11759,7 +11765,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="317" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
         <v>314</v>
       </c>
@@ -11782,7 +11788,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="318" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
         <v>70</v>
       </c>
@@ -11805,7 +11811,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="319" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
         <v>70</v>
       </c>
@@ -11828,7 +11834,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="320" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>70</v>
       </c>
@@ -11851,7 +11857,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="321" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>70</v>
       </c>
@@ -11874,7 +11880,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="322" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>70</v>
       </c>
@@ -11897,7 +11903,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>70</v>
       </c>
@@ -11920,7 +11926,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
         <v>70</v>
       </c>
@@ -11943,7 +11949,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
         <v>70</v>
       </c>
@@ -11966,7 +11972,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
         <v>70</v>
       </c>
@@ -11989,7 +11995,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="327" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
         <v>70</v>
       </c>
@@ -12012,7 +12018,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="328" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
         <v>70</v>
       </c>
@@ -12035,7 +12041,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="329" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>70</v>
       </c>
@@ -12058,7 +12064,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="330" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>70</v>
       </c>
@@ -12081,7 +12087,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="331" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>70</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="332" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>70</v>
       </c>
@@ -12127,7 +12133,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="333" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>70</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="334" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>70</v>
       </c>
@@ -12173,7 +12179,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="335" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>70</v>
       </c>
@@ -12196,7 +12202,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="336" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
         <v>70</v>
       </c>
@@ -12219,7 +12225,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>70</v>
       </c>
@@ -12242,7 +12248,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="338" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>70</v>
       </c>
@@ -12265,7 +12271,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="339" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>70</v>
       </c>
@@ -12288,7 +12294,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="340" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>70</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="341" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>70</v>
       </c>
@@ -12334,7 +12340,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="342" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
         <v>70</v>
       </c>
@@ -12357,7 +12363,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="343" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
         <v>70</v>
       </c>
@@ -12380,7 +12386,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="344" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
         <v>70</v>
       </c>
@@ -12403,7 +12409,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="345" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
         <v>70</v>
       </c>
@@ -12426,7 +12432,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="346" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>70</v>
       </c>
@@ -12449,7 +12455,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="347" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
         <v>70</v>
       </c>
@@ -12472,7 +12478,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="348" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>70</v>
       </c>
@@ -12495,7 +12501,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="349" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>70</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="350" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>70</v>
       </c>
@@ -12541,7 +12547,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="351" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>70</v>
       </c>
@@ -12564,7 +12570,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="352" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>70</v>
       </c>
@@ -12587,7 +12593,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="353" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>70</v>
       </c>
@@ -12610,7 +12616,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="354" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>70</v>
       </c>
@@ -12633,7 +12639,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="355" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>70</v>
       </c>
@@ -12656,7 +12662,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="356" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>70</v>
       </c>
@@ -12679,7 +12685,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="357" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
         <v>70</v>
       </c>
@@ -12702,7 +12708,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="358" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>70</v>
       </c>
@@ -12725,7 +12731,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="359" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>70</v>
       </c>
@@ -12748,7 +12754,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="360" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
         <v>70</v>
       </c>
@@ -12771,7 +12777,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="361" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>70</v>
       </c>
@@ -12794,7 +12800,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="362" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
         <v>70</v>
       </c>
@@ -12817,7 +12823,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="363" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
         <v>70</v>
       </c>
@@ -12840,7 +12846,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="364" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>70</v>
       </c>
@@ -12863,7 +12869,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="365" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
         <v>70</v>
       </c>
@@ -12886,7 +12892,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="366" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>70</v>
       </c>
@@ -12909,7 +12915,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="367" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
         <v>70</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="368" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>70</v>
       </c>
@@ -12955,7 +12961,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="369" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
         <v>70</v>
       </c>
@@ -12978,7 +12984,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="370" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
         <v>70</v>
       </c>
@@ -13001,7 +13007,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="371" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
         <v>70</v>
       </c>
@@ -13024,7 +13030,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="372" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
         <v>70</v>
       </c>
@@ -13047,7 +13053,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="373" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
         <v>70</v>
       </c>
@@ -13070,7 +13076,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="374" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
         <v>70</v>
       </c>
@@ -13093,7 +13099,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="375" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
         <v>70</v>
       </c>
@@ -13116,7 +13122,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="376" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
         <v>70</v>
       </c>
@@ -13139,7 +13145,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="377" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
         <v>70</v>
       </c>
@@ -13162,7 +13168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="378" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
         <v>315</v>
       </c>
@@ -13185,7 +13191,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="379" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
         <v>315</v>
       </c>
@@ -13208,7 +13214,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="380" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
         <v>315</v>
       </c>
@@ -13231,7 +13237,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="381" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
         <v>315</v>
       </c>
@@ -13254,7 +13260,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="382" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
         <v>315</v>
       </c>
@@ -13277,7 +13283,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="383" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
         <v>315</v>
       </c>
@@ -13300,7 +13306,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="384" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
         <v>315</v>
       </c>
@@ -13323,7 +13329,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="385" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
         <v>315</v>
       </c>
@@ -13346,7 +13352,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="386" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
         <v>315</v>
       </c>
@@ -13369,7 +13375,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="387" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
         <v>315</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="388" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
         <v>315</v>
       </c>
@@ -13415,7 +13421,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="389" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
         <v>315</v>
       </c>
@@ -13438,7 +13444,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="390" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
         <v>315</v>
       </c>
@@ -13461,7 +13467,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="391" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
         <v>315</v>
       </c>
@@ -13484,7 +13490,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="392" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
         <v>315</v>
       </c>
@@ -13507,7 +13513,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="393" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
         <v>315</v>
       </c>
@@ -13530,7 +13536,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="394" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
         <v>315</v>
       </c>
@@ -13553,7 +13559,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="395" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
         <v>315</v>
       </c>
@@ -13576,7 +13582,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="396" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
         <v>315</v>
       </c>
@@ -13599,7 +13605,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="397" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
         <v>315</v>
       </c>
@@ -13622,7 +13628,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="398" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
         <v>315</v>
       </c>
@@ -13645,7 +13651,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="399" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
         <v>316</v>
       </c>
@@ -13668,7 +13674,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="400" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
         <v>316</v>
       </c>
@@ -13691,7 +13697,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="401" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
         <v>316</v>
       </c>
@@ -13714,7 +13720,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="402" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
         <v>316</v>
       </c>
@@ -13737,7 +13743,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="403" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
         <v>316</v>
       </c>
@@ -13760,7 +13766,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="404" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
         <v>316</v>
       </c>
@@ -13783,7 +13789,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="405" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
         <v>316</v>
       </c>
@@ -13806,7 +13812,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="406" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
         <v>316</v>
       </c>
@@ -13829,7 +13835,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="407" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
         <v>316</v>
       </c>
@@ -13852,7 +13858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="408" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
         <v>316</v>
       </c>
@@ -13875,7 +13881,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="409" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
         <v>316</v>
       </c>
@@ -13898,7 +13904,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="410" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
         <v>316</v>
       </c>
@@ -13921,7 +13927,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="411" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
         <v>316</v>
       </c>
@@ -13944,7 +13950,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="412" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
         <v>316</v>
       </c>
@@ -13967,7 +13973,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="413" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
         <v>316</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="414" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
         <v>316</v>
       </c>
@@ -14013,7 +14019,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="415" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
         <v>316</v>
       </c>
@@ -14036,7 +14042,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="416" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
         <v>316</v>
       </c>
@@ -14059,7 +14065,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="417" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
         <v>316</v>
       </c>
@@ -14082,7 +14088,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="418" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
         <v>316</v>
       </c>
@@ -14105,7 +14111,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="419" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
         <v>316</v>
       </c>
@@ -14128,7 +14134,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="420" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
         <v>316</v>
       </c>
@@ -14151,7 +14157,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="421" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
         <v>316</v>
       </c>
@@ -14174,7 +14180,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="422" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
         <v>316</v>
       </c>
@@ -14197,7 +14203,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="423" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
         <v>316</v>
       </c>
@@ -14220,7 +14226,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="424" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
         <v>316</v>
       </c>
@@ -14243,7 +14249,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="425" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
         <v>316</v>
       </c>
@@ -14266,7 +14272,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="426" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
         <v>316</v>
       </c>
@@ -14289,7 +14295,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="427" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
         <v>316</v>
       </c>
@@ -14312,7 +14318,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="428" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
         <v>316</v>
       </c>
@@ -14335,7 +14341,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="429" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
         <v>316</v>
       </c>
@@ -14358,7 +14364,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="430" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
         <v>316</v>
       </c>
@@ -14381,7 +14387,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="431" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
         <v>316</v>
       </c>
@@ -14404,7 +14410,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="432" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
         <v>316</v>
       </c>
@@ -14427,7 +14433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="433" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
         <v>316</v>
       </c>
@@ -14450,7 +14456,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="434" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
         <v>316</v>
       </c>
@@ -14473,7 +14479,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="435" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
         <v>316</v>
       </c>
@@ -14496,7 +14502,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="436" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
         <v>316</v>
       </c>
@@ -14519,7 +14525,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="437" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
         <v>316</v>
       </c>
@@ -14542,7 +14548,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="438" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
         <v>316</v>
       </c>
@@ -14565,7 +14571,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="439" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
         <v>316</v>
       </c>
@@ -14588,7 +14594,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="440" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
         <v>316</v>
       </c>
@@ -14611,7 +14617,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="441" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
         <v>316</v>
       </c>
@@ -14634,7 +14640,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="442" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
         <v>316</v>
       </c>
@@ -14657,7 +14663,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="443" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
         <v>316</v>
       </c>
@@ -14680,7 +14686,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="444" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
         <v>316</v>
       </c>
@@ -14703,7 +14709,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="445" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
         <v>316</v>
       </c>
@@ -14726,7 +14732,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="446" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
         <v>316</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="447" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
         <v>316</v>
       </c>
@@ -14772,7 +14778,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="448" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
         <v>316</v>
       </c>
@@ -14795,7 +14801,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
         <v>316</v>
       </c>
@@ -14818,7 +14824,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>75</v>
       </c>
@@ -14856,7 +14862,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>78</v>
       </c>
@@ -14894,7 +14900,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>79</v>
       </c>
@@ -14935,7 +14941,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>80</v>
       </c>
@@ -14976,7 +14982,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>81</v>
       </c>
@@ -15014,7 +15020,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>82</v>
       </c>
@@ -15052,7 +15058,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>83</v>
       </c>
@@ -15090,7 +15096,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>75</v>
       </c>
@@ -15128,7 +15134,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>143</v>
       </c>
@@ -15166,7 +15172,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>144</v>
       </c>
@@ -15204,7 +15210,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>145</v>
       </c>
@@ -15242,7 +15248,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>78</v>
       </c>
@@ -15283,7 +15289,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>79</v>
       </c>
@@ -15321,7 +15327,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>80</v>
       </c>
@@ -15359,7 +15365,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>81</v>
       </c>
@@ -15397,7 +15403,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>82</v>
       </c>
@@ -15435,7 +15441,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>83</v>
       </c>
@@ -15473,7 +15479,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>75</v>
       </c>
@@ -15511,7 +15517,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>143</v>
       </c>
@@ -15549,7 +15555,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>144</v>
       </c>
@@ -15587,7 +15593,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>145</v>
       </c>
@@ -15625,7 +15631,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>78</v>
       </c>
@@ -15663,7 +15669,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>79</v>
       </c>
@@ -15701,7 +15707,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>80</v>
       </c>
@@ -15739,7 +15745,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>81</v>
       </c>
@@ -15777,7 +15783,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>82</v>
       </c>
@@ -15815,7 +15821,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>83</v>
       </c>
@@ -15853,7 +15859,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>75</v>
       </c>
@@ -15891,7 +15897,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>143</v>
       </c>
@@ -15929,7 +15935,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>144</v>
       </c>
@@ -15967,7 +15973,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>145</v>
       </c>
@@ -16004,11 +16010,11 @@
       <c r="P480" t="s">
         <v>323</v>
       </c>
-      <c r="Q480" t="s">
+      <c r="R480" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>78</v>
       </c>
@@ -16046,7 +16052,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>79</v>
       </c>
@@ -16084,7 +16090,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>81</v>
       </c>
@@ -16122,7 +16128,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>82</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>83</v>
       </c>
@@ -16198,7 +16204,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>75</v>
       </c>
@@ -16236,7 +16242,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>78</v>
       </c>
@@ -16277,7 +16283,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>79</v>
       </c>
@@ -16315,7 +16321,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>80</v>
       </c>
@@ -16353,7 +16359,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>81</v>
       </c>
@@ -16391,7 +16397,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>82</v>
       </c>
@@ -16429,7 +16435,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>83</v>
       </c>
@@ -16467,7 +16473,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>77</v>
       </c>
@@ -16502,7 +16508,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>331</v>
       </c>
@@ -16537,7 +16543,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>77</v>
       </c>
@@ -16572,7 +16578,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>331</v>
       </c>
@@ -16607,7 +16613,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>77</v>
       </c>
@@ -16642,7 +16648,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>331</v>
       </c>
@@ -16680,7 +16686,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>77</v>
       </c>
@@ -16715,7 +16721,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>331</v>
       </c>
@@ -16750,7 +16756,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>77</v>
       </c>
@@ -16788,7 +16794,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>331</v>
       </c>
@@ -16823,7 +16829,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>77</v>
       </c>
@@ -16858,7 +16864,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>331</v>
       </c>
@@ -16893,7 +16899,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>75</v>
       </c>
@@ -16931,7 +16937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>75</v>
       </c>
@@ -16969,7 +16975,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>143</v>
       </c>
@@ -17007,7 +17013,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>77</v>
       </c>
@@ -17045,7 +17051,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>144</v>
       </c>
@@ -17083,7 +17089,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>145</v>
       </c>
@@ -17121,7 +17127,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>78</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>75</v>
       </c>
@@ -17200,7 +17206,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>143</v>
       </c>
@@ -17238,7 +17244,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>77</v>
       </c>
@@ -17279,7 +17285,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>144</v>
       </c>
@@ -17317,7 +17323,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>145</v>
       </c>
@@ -17355,7 +17361,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>78</v>
       </c>
@@ -17393,7 +17399,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>75</v>
       </c>
@@ -17431,7 +17437,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>143</v>
       </c>
@@ -17469,7 +17475,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>77</v>
       </c>
@@ -17507,7 +17513,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>144</v>
       </c>
@@ -17545,7 +17551,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>145</v>
       </c>
@@ -17583,7 +17589,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>78</v>
       </c>
@@ -17621,7 +17627,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>75</v>
       </c>
@@ -17659,7 +17665,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>75</v>
       </c>
@@ -17697,7 +17703,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>77</v>
       </c>
@@ -17735,7 +17741,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>78</v>
       </c>
@@ -17773,7 +17779,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>79</v>
       </c>
@@ -17814,7 +17820,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>80</v>
       </c>
@@ -17855,7 +17861,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>81</v>
       </c>
@@ -17893,7 +17899,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>82</v>
       </c>
@@ -17931,7 +17937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>83</v>
       </c>
@@ -17969,7 +17975,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>75</v>
       </c>
@@ -18007,7 +18013,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>143</v>
       </c>
@@ -18045,7 +18051,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>77</v>
       </c>
@@ -18083,7 +18089,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>144</v>
       </c>
@@ -18121,7 +18127,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>145</v>
       </c>
@@ -18159,7 +18165,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>78</v>
       </c>
@@ -18200,7 +18206,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>79</v>
       </c>
@@ -18238,7 +18244,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>80</v>
       </c>
@@ -18276,7 +18282,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>81</v>
       </c>
@@ -18314,7 +18320,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>82</v>
       </c>
@@ -18352,7 +18358,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>83</v>
       </c>
@@ -18390,7 +18396,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>75</v>
       </c>
@@ -18428,7 +18434,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="545" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>143</v>
       </c>
@@ -18466,7 +18472,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="546" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>77</v>
       </c>
@@ -18510,7 +18516,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="547" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>144</v>
       </c>
@@ -18551,7 +18557,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="548" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>145</v>
       </c>
@@ -18592,7 +18598,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>78</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="550" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>79</v>
       </c>
@@ -18668,7 +18674,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="551" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>80</v>
       </c>
@@ -18709,7 +18715,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="552" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>81</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="553" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>82</v>
       </c>
@@ -18788,7 +18794,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="554" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>83</v>
       </c>
@@ -18826,7 +18832,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="555" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>75</v>
       </c>
@@ -18864,7 +18870,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="556" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>143</v>
       </c>
@@ -18902,7 +18908,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="557" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>77</v>
       </c>
@@ -18940,7 +18946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="558" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>144</v>
       </c>
@@ -18978,7 +18984,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="559" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>145</v>
       </c>
@@ -19016,7 +19022,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>78</v>
       </c>
@@ -19053,11 +19059,11 @@
       <c r="P560" t="s">
         <v>323</v>
       </c>
-      <c r="Q560" t="s">
+      <c r="R560" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>79</v>
       </c>
@@ -19095,7 +19101,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>81</v>
       </c>
@@ -19133,7 +19139,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>82</v>
       </c>
@@ -19171,7 +19177,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>83</v>
       </c>
@@ -19209,7 +19215,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>75</v>
       </c>
@@ -19247,7 +19253,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>77</v>
       </c>
@@ -19285,7 +19291,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>78</v>
       </c>
@@ -19326,7 +19332,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>79</v>
       </c>
@@ -19364,7 +19370,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>80</v>
       </c>
@@ -19402,7 +19408,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>81</v>
       </c>
@@ -19440,7 +19446,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>82</v>
       </c>
@@ -19478,7 +19484,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>83</v>
       </c>
@@ -19517,7 +19523,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q576">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R576">
     <sortCondition ref="B2:B576"/>
     <sortCondition ref="H2:H576"/>
     <sortCondition ref="C2:C576"/>
@@ -19541,31 +19547,31 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="96.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -19582,7 +19588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -19599,7 +19605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -19616,7 +19622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
@@ -19631,7 +19637,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>3</v>
       </c>
@@ -19646,7 +19652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -19661,7 +19667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
@@ -19678,7 +19684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
@@ -19695,7 +19701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
@@ -19712,7 +19718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -19729,7 +19735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
@@ -19746,7 +19752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -19761,7 +19767,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
@@ -19776,7 +19782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
@@ -19793,7 +19799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
@@ -19810,7 +19816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>59</v>
       </c>
@@ -19827,7 +19833,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>58</v>
       </c>
@@ -19844,7 +19850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>61</v>
       </c>
